--- a/erpnext-notes/NEXTERP-NOTES.xlsx
+++ b/erpnext-notes/NEXTERP-NOTES.xlsx
@@ -5,17 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Accounting" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Tech" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="HowTo" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="Frappe" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="Frappe" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="HowTo" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="Bench" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="DocType" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Link" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Desk" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="JS API" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="BuildApp" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="SystemSettings" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Link" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Find Out" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Troubleshoot" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="AppCustomization" sheetId="15" state="visible" r:id="rId16"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -27,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="361">
   <si>
     <t xml:space="preserve">Supplier can be an individual or an organization and has multiple Contacts and Addresses</t>
   </si>
@@ -97,7 +104,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Multi Tenant</t>
     </r>
@@ -106,125 +112,17 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">: multiple instances of apps with separate databases on the same codebase</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">ERPNext IP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Localhost:8000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a new frappe-bench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench init frappe-bench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cd /home/lct/erpnext/frappe-bench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Start bench</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench start</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create new site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench new-site site_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Create a new apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench new-app app_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app_name directory will now be created in the apps directory and It will also be added to apps.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Install Apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench --site site_name install-app app_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check app installed correctly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench --site site_name list-apps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">what it does??</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bench get-app </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench build</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> force the development server to serve a specific site</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">bench --site </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">site_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> serve</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">equivalent to db-filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Set site as the current (default) site</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bench use site_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">After running this command, site specific commands can be run without the --site parameter.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">create a DocType through DESK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">typing new doctype in the search bar in the Desk</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Frappe</t>
     </r>
@@ -233,7 +131,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> is a full stack, batteries-included, web framework written in Python and Javascript</t>
     </r>
@@ -244,7 +141,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The key difference in Frappe compared to other frameworks is that </t>
     </r>
@@ -254,7 +150,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">meta-data is also treated as data</t>
     </r>
@@ -263,7 +158,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and is used to build front-ends very easily</t>
     </r>
@@ -314,7 +208,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">The core philosophy at Frappe is write as less code as possible </t>
     </r>
@@ -324,7 +217,6 @@
         <color rgb="FF000080"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">We </t>
     </r>
@@ -335,7 +227,6 @@
         <color rgb="FF800080"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">prefer configuration over code</t>
     </r>
@@ -362,7 +253,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Directory structure </t>
     </r>
@@ -371,7 +261,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frappe-bench</t>
     </r>
@@ -383,7 +272,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">apps</t>
     </r>
@@ -392,7 +280,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> The frappe app and other frappe based apps live in this directory</t>
     </r>
@@ -404,7 +291,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Sites</t>
     </r>
@@ -413,7 +299,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> are served from this directory.</t>
     </r>
@@ -425,7 +310,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Env</t>
     </r>
@@ -434,7 +318,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  Python virtual environment live in this directory. Frappe based apps and Python package dependencies are installed here</t>
     </r>
@@ -446,7 +329,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">config</t>
     </r>
@@ -455,7 +337,6 @@
         <sz val="11"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Frappe uses 3 Redis instances to manage caching, job queueing and socketio communication. All of those configurations live here</t>
     </r>
@@ -467,7 +348,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Logs</t>
     </r>
@@ -476,7 +356,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> This directory is used to dump log files from various processes. Each log file is named based on the process it is logged from</t>
     </r>
@@ -488,7 +367,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Procfile </t>
     </r>
@@ -498,7 +376,6 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Frappe uses Procfile based process management</t>
     </r>
@@ -534,7 +411,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">requirements.txt</t>
     </r>
@@ -543,7 +419,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> stores the list of python </t>
     </r>
@@ -553,7 +428,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">dependencies</t>
     </r>
@@ -562,7 +436,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. When this app is installed, it's dependencies will also get installed.</t>
     </r>
@@ -574,7 +447,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">package.json</t>
     </r>
@@ -583,7 +455,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> This file is used to keep track of node dependencies</t>
     </r>
@@ -595,7 +466,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app</t>
     </r>
@@ -604,7 +474,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> This is the directory where the source files are stored</t>
     </r>
@@ -616,7 +485,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/hooks</t>
     </r>
@@ -627,7 +495,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.py</t>
     </r>
@@ -636,7 +503,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> This file is used to hook into frappe events and extend or override standard behaviour by frappe</t>
     </r>
@@ -648,7 +514,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/modules.txt</t>
     </r>
@@ -657,7 +522,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Every frappe app is organized into different modules. Every DocType is part of a module. These modules are listed in this file</t>
     </r>
@@ -669,7 +533,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/patches.txt</t>
     </r>
@@ -678,7 +541,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> This file is used to maintain the list of patches an app might have to go through in its lifecycle. These patches are run in order, and they are run only once</t>
     </r>
@@ -690,7 +552,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/custom_app </t>
     </r>
@@ -699,7 +560,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">When you create a new app, a module with the same name is also created within the app. This is the directory which corresponds to that module</t>
     </r>
@@ -711,7 +571,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/public</t>
     </r>
@@ -720,7 +579,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> a static folder and can be served by nginx in production. Files put here can be accessed via the url. It is used to </t>
     </r>
@@ -730,7 +588,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">store static assets used directly in the client side</t>
     </r>
@@ -739,7 +596,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> like JS, CSS and Images.</t>
     </r>
@@ -751,7 +607,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/templates</t>
     </r>
@@ -760,7 +615,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">  folder is used to write and manage Jinja Templates.  This directory is directly scanned when you use them in Jinja templates</t>
     </r>
@@ -772,7 +626,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">custom_app/www</t>
     </r>
@@ -781,7 +634,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Files in this directory are directly mapped to</t>
     </r>
@@ -791,7 +643,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> portal pages</t>
     </r>
@@ -800,7 +651,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and the URLs match the directory structure</t>
     </r>
@@ -821,7 +671,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frappe-bench/sites</t>
     </r>
@@ -830,7 +679,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> is where all the sites for this bench live</t>
     </r>
@@ -842,7 +690,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">apps.tx</t>
     </r>
@@ -851,7 +698,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">t contains a list of Frappe apps. An app should be listed here before it can be installed on a site. App added automatically when bench get-app command or bench new-app command is run</t>
     </r>
@@ -863,7 +709,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">common_site_config.json</t>
     </r>
@@ -872,7 +717,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Configuration common to all sites can be put in this file</t>
     </r>
@@ -884,7 +728,6 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">assets</t>
     </r>
@@ -893,251 +736,561 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> contain files that are required to be served for the client browser ( *.js, *.css, and image files). This directory is auto generated using the bench build command. It  is served by Nginx in production.</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">Site Directory Structure </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Locks</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> This directory is used by the scheduler to synchronize various jobs using the file locking concept</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> contains files that require authentication to access. It contains private files and backups. They can be accessed by the URL: /private/files/private-file.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">public</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> This directory contains publicly accessible files</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">site_config.json</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is used to store site specific configuration *** very important file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">developer_modeEnable developer mode to allow creating controller based DocTypes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ERPNext IP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Localhost:8000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a new frappe-bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench init frappe-bench(bench_nmae)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Start bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cd /home/lct/erpnext/frappe-bench + bench start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update the bench Pulls changes for bench-repo and all apps, applies patches, builds JS and CSS, and then migrates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if run inside the bench directory it will update it and all the instance with in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Downloads an app from a git repository and installs it</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bench get-app </t>
+  </si>
+  <si>
+    <t xml:space="preserve">??????</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench build</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Show version of all apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench version </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Show bench version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench –version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clear the cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench clear-cache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench new-site site_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For production setup run the command after creating the site</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bench setup nginx</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> force the development server to serve a specific site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench --site site_name serve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">equivalent to db-filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Set site as the current (default) site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench use site_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After running this command, site specific commands can be run without the --site parameter.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a new apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench new-app app_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">app_name directory will now be created in the apps directory and It will also be added to apps.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench --site site_name install-app app_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check app installed correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench --site site_name list-apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a DocType through DESK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">typing new doctype in the search bar in the Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">return a record  from the given model that has the given name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.get_doc('model_name', 'record_name')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View a returned doc as dictionary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">returned_doc.as_dict()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create document  in docytpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc = frappe.get_doc({ 'doctype': 'Task',  'title': 'New Task'}) + doc.insert()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.new_doc(doctype)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deletes the record and its children from the database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.delete_doc('Task', 'TASK00002')</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rename a document's name (primary key) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.rename_doc(doctype, old_name, new_name, merge=False)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If merge is True and a record with new_name exists, will merge the record with it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Methods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/document#document-methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docfields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field will be read only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read_only_depends_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field will be mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandatory_depends_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">field will be displayed or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends_on</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Controllers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a new document and save it to the db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">doc = frappe.get_doc({'doctype': 'Person',}) + doc.insert()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To customize the List View must have</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{doctype}_list.js file in the doctype directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> List View customization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To configure calendar view</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> {doctype}_calendar.js should exist in the doctype directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hide a doctype from a User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove the read permission from a Role using the Role Permissions Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To configure which modules are shown to a user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the Allow Modules section of the User form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">show module in the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discuss.erpnext.com/t/custom-app-not-showing-on-desk-of-v12/51256/8?u=adam26d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passing variable in a massage py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_('Welcome {0} .').format(full_name)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">passing variable in a massage js</t>
+  </si>
+  <si>
+    <t xml:space="preserve">__('Welcome {0}, get started with ERPNext in just a few clicks.', [full_name])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">export untranslated terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench --site sitename get-untranslated [lang] [path-to-file]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">server calles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/server-calls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">log into db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench mariadb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email is sent via</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frappe.sendmail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappe.github.io/charts/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatter For Link Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/desk/formatter_for_link_fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding app to a site</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bench get-app </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://github.com/org/app_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + 
+bench --site site_name install-app app_name</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To set the self.name property in the method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call method autoname in the controller class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exporting customizations of an app into new custom app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench is the all-in-one tool to manage all things Frappe</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It handles </t>
+    </r>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Site Directory Structure</t>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">app updates</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
         <b val="true"/>
         <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">database migrations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, generating </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">configs for nginx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">supervisor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">scaffolding new apps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> and much</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Locks</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> This directory is used by the scheduler to synchronize various jobs using the file locking concept</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> contains files that require authentication to access. It contains private files and backups. They can be accessed by the URL: /private/files/private-file.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">public</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> This directory contains publicly accessible files</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">site_config.json</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> is used to store site specific configuration *** very important file </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">developer_mode	Enable developer mode to allow creating controller based DocTypes</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Bench is the all-in-one tool to manage all things Frappe</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">It handles </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">app updates</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">database migrations</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, generating </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">configs for nginx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">supervisor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">scaffolding new apps</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> and much</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">port-based multitenancy</t>
     </r>
@@ -1146,7 +1299,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> where you can set up multiple bench environments for different versions of apps</t>
     </r>
@@ -1160,7 +1312,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">bench init frappe-bench command will do the following:
 Create a directory called</t>
@@ -1171,7 +1322,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> frappe-bench</t>
     </r>
@@ -1180,7 +1330,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> and </t>
     </r>
@@ -1190,7 +1339,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frappe-bench/sites</t>
     </r>
@@ -1199,7 +1347,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1209,7 +1356,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frappe-bench/apps</t>
     </r>
@@ -1218,7 +1364,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> within it.
 Setup a python virtual environment under </t>
@@ -1229,7 +1374,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frappe-bench/env</t>
     </r>
@@ -1238,7 +1382,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.
 Create a </t>
@@ -1249,7 +1392,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">frappe-bench/config</t>
     </r>
@@ -1258,7 +1400,6 @@
         <sz val="10"/>
         <rFont val="Arial"/>
         <family val="2"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> folder to store redis configuration files.
 Download frappe app and pip install it.
@@ -1267,69 +1408,683 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">you can have different versions of Frappe (and Frappe apps) across multiple benches on the same server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Bench setup allows you to have multiple code bases and configurations on the same system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you create a new bench, it will automatically use different ports from the existing bench</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For production setup you will have to run bench setup nginx after creating a new site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bench update his will download the latest version all the apps on bench, update dependencies, run patches, and also migrate the database schema. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If bench update executed outside a bench directory, it just updates the bench tool</t>
+  </si>
+  <si>
     <t xml:space="preserve">A DocType is the core building block of any application based on the Frappe Framework</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
+    <t xml:space="preserve"> DocType describes the Model and the View of your data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocType also enables rich Object Relational Mapper (ORM) pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORM is just an easy way to read, write and update data in a database without writing explicit SQL statements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naming Conventions is DocType is always singular.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you create a DocType, a JSON object is created which in turn creates a database table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A DocType will always belong to a module, to enable easier grouping of related models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modules also helps in grouping of code files in directories. The controller files generated by a DocType will live in it's respective Module directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocField</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocField stores meta-data about the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depends_on property which determines whether a field will be displayed or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandatory_depends_on: If this condition is satisfied, the field will be mandatory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read_only_depends_on: If this condition is satisfied, the field will be read only</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">All docs in Frappe have a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DocType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> describes the Model and the View of your data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">DocType</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> also enables rich Object Relational Mapper (ORM) pattern</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ORM is just an easy way to read, write and update data in a database without writing explicit SQL statements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naming Conventions is DocType is always singular.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">When you create a DocType, a JSON object is created which in turn creates a database table</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A DocType will always belong to a module, to enable easier grouping of related models</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modules also helps in grouping of code files in directories. The controller files generated by a DocType will live in it's respective Module directory</t>
+        <color rgb="FF191970"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">primary key called name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. a unique id by which  will be finding records and manipulating them using the ORM</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ways you can setup naming in a DocType</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">field:[fieldname]:</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The doc name is fetched from the value of the field provided</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[series]:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> naming pattern which will be incremented automatically</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">naming_series: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">naming pattern is derived from a field in the document  works only if field called naming_series in your DocType</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Prompt:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the name is required to be filled in manually.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Format:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the most flexible one when it comes to configuring your naming schemes</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A Document is an instance of a DocType. It usually maps to a single row in the database table. We refer to it as doc in code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Child DocType is doctype which can only be linked to a parent DocType. Needs 2 check Is Child Table while creating the doctype</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Controller is python class which extends from frappe.model.Document base class (the core logic of a DocType)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a DocType named Person, a python file is created by the name person.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*** creating a new doctype a two files are created the json file contains model defenition and python file represent the controller</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when I add a doctype does it only add in the site or in the apps</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Controller Methods</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> can add custom methods to your Controller or override the pre-defined document methods to add your own behaviour</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Controller Hooks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">add custom behaviour during the lifecycle of a document</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To use a controller hook, just define a class method with that name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desk reads meta-data from DocTypes and automatically builds list views, form views, report views, etc for it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">List View is generated for all DocTypes except which are Child Tables and Singles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To customize the List View you must have a {doctype}_list.js file in the doctype directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The form timeline shows emails, comments, edits and other events in a reverse chronological order.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calendar view can be configured for DocTypes with a start date and end date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The configuration file should be named {doctype}_calendar.js and should exist in the doctype directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gantt view uses the same configuration file as calendar, so every DocType that has a Calendar view has a Gantt view too</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanban view can be created for DocType that has a Select field with options (used as column names for the Kanban)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users and Permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Role describes what actions a User can perform on a DocType.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the user has any role checked, then the user becomes a "System User". "System User" has access to the desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To configure roles for a DocType you must add them in the Permissions table in DocType ()the related.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permission Levels can be used to group fields in a document and apply separate roles to each level. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By default all fields have permlevel set as 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe Framework allows you to configure what modules, doctypes and views are visible to the user</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe also supports password strength checking. It can be enabled from System Settings in the Security section</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe supports 3 different ways to build reports depending on their complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Report Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It will only show the records of single DocType as well as child records of Child Tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generated using a single SQL query. Can only be created by a System Manager and are stored in the database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Script Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">built using Python scripts. Since these reports give you unrestricted access via Python scripts, they can only be created by Administrators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">these reports are meant to be written during development and be a part of your app.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create Script Reports you must enable Developer Mode.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Printing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe framework has first class support for generating print formats for documents and also convert them into PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe uses Jinja as the templating language for print formats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Standard print format is generated for all DocTypes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Customize a print format you need to create a copy of the Standard Print format and customize it using the Print Format Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">These print formats are user editable and are not bundled with the app as files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Translations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Literal strings </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The string to be translated must always be a literal string, not a variable or expression</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Variables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> for variables in your string, you must use the positional formatter </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">{0}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't split your string into separate blocks of strings . Always write your string in a single even if the string is very large.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't try to pluralize words using logic. Use full if instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't start or end the sentence with spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe has two main user environments, the Desk and Web</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Desk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is a controlled UI environment with a rich AJAX application</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Web</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is more traditional HTML templates served for public consumption</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Web views can also be generated to create more controlled views for users who may login but still do not have access to the Desk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Views </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Views are managed by templates and they are usually in the templates folder ( 2 main types of templates)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Pages</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: These are Jinja templates where a single view exists for a single web route e.g. /blog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Generators</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: These are templates where each instance of a DocType has a separate web route /blog/a-blog, blog/b-blog</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Scripts lets you add client side logic to your Forms. Like automatically fetching values, adding validation or adding contextual actions to d Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Form Scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a new DocType, a {doctype}.js is created where you can write your form script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Table Scripts should be written in the same file as their parent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custom Form Scripts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can also write form scripts by creating Custom Script in the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You should write Custom Scripts if the logic is specific to your site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form Scripts depend on events to trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all Form Events that are triggered by Form get frm as the first parameter in their handler functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Child Table Events triggered in the context of a Child Table. along with frm, they got cdt (Child DocType) and cdn (Child Docname) parameters in their handler functions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of common methods that are available on the frm object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Server Calls (AJAX)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.call(method, args)  method which is the dotted path to a whitelisted Python method, is executed and it's return value is sent as the response</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common Utilities API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.get_route(): Returns the current route as an array.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.set_route (route) Changes the current route to route → guess it opens or goes the given path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frappe.format(value, df, options, doc) Format a raw value into user presentable format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialog API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you create a DocType below mentioned files/folders are automatically created.
+A new folder in the 'doctype' sub-folder of corresponding Module folder
+A model JSON file
+Controller template in Python
+Controller template in JS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steps for building App</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create the app from the bench</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Before creating Models</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, we must </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">create Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> so that we can set permissions on the Model</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">create the DocTypes and  pick the Module in which they belong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Fields </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocType Naming and Linking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 ways to naming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign keys are specified in Frappe as Link type fields. Link fields are not automatically set as Foreign Keys in the MariaDB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Permissions (You can change permissions later using the Role Permissions Manager from Permissions in Users and Permissions)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Set Module Icon in the Desk</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">The hooks.py </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">file defines the metadata of your app and integration points with other parts of Frappe or Frappe apps such parts include task scheduling or listening to updates to different documents in the system</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">It is necessary for every [DocType] to be attached to a module</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> each module gets an icon on the [Desk]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While accessing any server side method via frappe.call(), you need to whitelist server side method using decorator @frappe.whitelist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding Module Icons On Desktop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create a module icon for a Page, List or Module, you will have to edit the config/desktop.py file in your app or add a.py file with the module name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">setting date format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settings &gt; System Settings</t>
   </si>
   <si>
     <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/basics/hooks</t>
@@ -1342,6 +2097,176 @@
   </si>
   <si>
     <t xml:space="preserve">Frappe Documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/frappe/bench/wiki/Multi-Bench-Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Bench-Setup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discuss.erpnext.com/t/how-do-you-install-multiple-version-of-erpnext/53807/6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Install multiple version of erpnext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/bench/resources/bench-commands-cheatsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench Commands Cheatsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jwrober.github.io/erpnext_admin_guide/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erpnext admin guide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/reports-and-printing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show module in the dashboard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Document Methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja Methonds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Form events</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/js-utils</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Common utilities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/dialog#dialog-api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.frappeframework.com/docs//user/en/bench/resources/bench-commands-cheatsheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/tutorial/task-runner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cron and sending emails</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://frappe.github.io/charts/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://frappe.io/charts</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Making charts in frappi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formatter For Link Fields(how to view linked fields)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/adding-module-icons-on-desktop</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/custom-module</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">-icon</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">adding custom module icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frappe Controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the difference between frappe.ui.Dialog  and msprint with a primary action  and frappe.prompt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what is the difference between js dialog and python dialog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is next server_action and  client_side</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bench Update Error: Connection refused</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discuss.erpnext.com/t/solved-bench-update-error-connection-refused/45851</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Error 111 connecting to localhost after bench update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://discuss.erpnext.com/t/error-111-connecting-to-localhost-after-bench-update/22058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your system is being updated. Please refresh again after a few moments</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bench --site &lt;site-name&gt; set-maintenance-mode off</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your custom app can automatically add Custom Fields to DocTypes outside of your app when it is installed to a new site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Custom Fields During App Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/how-to-create-custom-fields-during-app-installation</t>
   </si>
 </sst>
 </file>
@@ -1351,12 +2276,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="30">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1375,10 +2299,60 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="10"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF0000EE"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1386,18 +2360,30 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1406,14 +2392,12 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -1421,35 +2405,23 @@
       <color rgb="FF800080"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <i val="true"/>
@@ -1457,10 +2429,38 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF191970"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1469,14 +2469,56 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFF5FFFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFFFC0CB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF6B8E23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDA0DD"/>
-        <bgColor rgb="FFFF99CC"/>
+        <bgColor rgb="FFFFC0CB"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000080"/>
-        <bgColor rgb="FF000080"/>
+        <bgColor rgb="FF191970"/>
       </patternFill>
     </fill>
     <fill>
@@ -1499,12 +2541,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC0CB"/>
-        <bgColor rgb="FFFF99CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF6B8E23"/>
         <bgColor rgb="FF808000"/>
       </patternFill>
@@ -1512,7 +2548,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF8C00"/>
-        <bgColor rgb="FFFF6347"/>
+        <bgColor rgb="FFD2691E"/>
       </patternFill>
     </fill>
     <fill>
@@ -1530,7 +2566,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF228B22"/>
+        <bgColor rgb="FF006600"/>
       </patternFill>
     </fill>
     <fill>
@@ -1542,17 +2578,89 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9ACD32"/>
-        <bgColor rgb="FFC0C0C0"/>
+        <bgColor rgb="FFBDB76B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6347"/>
-        <bgColor rgb="FFFF8080"/>
+        <fgColor rgb="FFFFC0CB"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF69B4"/>
+        <bgColor rgb="FFDB7093"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDB7093"/>
+        <bgColor rgb="FFFF69B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor rgb="FFC71585"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor rgb="FF00FFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008B8B"/>
+        <bgColor rgb="FF2E8B57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA8072"/>
+        <bgColor rgb="FFDB7093"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB8860B"/>
+        <bgColor rgb="FFD2691E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2691E"/>
+        <bgColor rgb="FFB8860B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDB76B"/>
+        <bgColor rgb="FF9ACD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF556B2F"/>
+        <bgColor rgb="FF6B8E23"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5FFFA"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1560,8 +2668,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1585,33 +2708,88 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1619,158 +2797,319 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="24" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="26" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="27" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="27" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="28" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="28" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="29" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="30" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="31" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="32" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="25" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006400"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF228B22"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF6B8E23"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF008B8B"/>
+      <rgbColor rgb="FFBDB76B"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFDB7093"/>
       <rgbColor rgb="FFC71585"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFF5FFFA"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFFA8072"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF191970"/>
+      <rgbColor rgb="FFFF69B4"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF228B22"/>
+      <rgbColor rgb="FF0000EE"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFB8860B"/>
+      <rgbColor rgb="FFFFC0CB"/>
       <rgbColor rgb="FFDDA0DD"/>
-      <rgbColor rgb="FFFFC0CB"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF9ACD32"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD700"/>
       <rgbColor rgb="FFFF8C00"/>
-      <rgbColor rgb="FFFF6347"/>
+      <rgbColor rgb="FFD2691E"/>
       <rgbColor rgb="FF7B68EE"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF6B8E23"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF2E8B57"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF006400"/>
+      <rgbColor rgb="FF556B2F"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF8A2BE2"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -1829,6 +3168,600 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="115.32"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="68.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="47" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="21" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>311</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="40.49"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="89.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.44"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" s="62" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" s="62" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://frappeframework.com/docs/user/en/guides/basics/hooks"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://frappeframework.com/docs/user/en"/>
+    <hyperlink ref="A4" r:id="rId3" display="https://discuss.erpnext.com/t/how-do-you-install-multiple-version-of-erpnext/53807/6"/>
+    <hyperlink ref="A5" r:id="rId4" display="https://frappeframework.com/docs/user/en/bench/resources/bench-commands-cheatsheet"/>
+    <hyperlink ref="A8" r:id="rId5" display="https://frappeframework.com/docs/user/en/desk"/>
+    <hyperlink ref="A9" r:id="rId6" display="https://frappeframework.com/docs/user/en/reports"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://frappeframework.com/docs/user/en/guides/reports-and-printing"/>
+    <hyperlink ref="A11" r:id="rId8" display="https://discuss.erpnext.com/t/custom-app-not-showing-on-desk-of-v12/51256/8?u=adam26d"/>
+    <hyperlink ref="A12" r:id="rId9" location="document-methods" display="https://frappeframework.com/docs/user/en/api/document#document-methods"/>
+    <hyperlink ref="A13" r:id="rId10" display="https://frappeframework.com/docs/user/en/api/database"/>
+    <hyperlink ref="A14" r:id="rId11" display="https://frappeframework.com/docs/user/en/api/jinja"/>
+    <hyperlink ref="A15" r:id="rId12" display="https://frappeframework.com/docs/user/en/api/form"/>
+    <hyperlink ref="A16" r:id="rId13" display="https://frappeframework.com/docs/user/en/api/form"/>
+    <hyperlink ref="A17" r:id="rId14" display="https://frappeframework.com/docs/user/en/api/server-calls"/>
+    <hyperlink ref="A18" r:id="rId15" display="https://frappeframework.com/docs/user/en/api/js-utils"/>
+    <hyperlink ref="A19" r:id="rId16" location="dialog-api" display="https://frappeframework.com/docs/user/en/api/dialog#dialog-api"/>
+    <hyperlink ref="A20" r:id="rId17" display="https://www.frappeframework.com/docs//user/en/bench/resources/bench-commands-cheatsheet"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://frappeframework.com/docs/user/en/tutorial/task-runner"/>
+    <hyperlink ref="A23" r:id="rId19" display="https://frappeframework.com/docs/user/en/guides/desk/formatter_for_link_fields"/>
+    <hyperlink ref="A24" r:id="rId20" display="https://frappeframework.com/docs/user/en/guides/app-development/adding-module-icons-on-desktop"/>
+    <hyperlink ref="A25" r:id="rId21" display="https://frappeframework.com/docs/user/en/guides/app-development/custom-module"/>
+    <hyperlink ref="A26" r:id="rId22" display="https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="105.3"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="73.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="82.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="5" s="66" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="65" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://discuss.erpnext.com/t/solved-bench-update-error-connection-refused/45851"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://discuss.erpnext.com/t/error-111-connecting-to-localhost-after-bench-update/22058"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>359</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>360</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations"/>
+    <hyperlink ref="B4" r:id="rId2" display="https://frappeframework.com/docs/user/en/guides/app-development/how-to-create-custom-fields-during-app-installation"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1975,132 +3908,312 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A2:A69"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="179.73"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8" t="s">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="8" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="7" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="16" t="s">
         <v>47</v>
       </c>
     </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="24" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="16" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A65" r:id="rId1" location="directory-structure" display="Site Directory Structure "/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2116,311 +4229,493 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:A69"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A69" activeCellId="0" sqref="A69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="179.73"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="79.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="66.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="91.4"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>49</v>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="26" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>51</v>
+        <v>84</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>52</v>
+        <v>89</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>53</v>
+      <c r="A9" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>54</v>
+      <c r="A10" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>55</v>
+      <c r="A11" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>56</v>
+      <c r="A12" s="9"/>
+    </row>
+    <row r="13" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>58</v>
+        <v>100</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>59</v>
+        <v>104</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>61</v>
-      </c>
-    </row>
+        <v>107</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="12" t="s">
-        <v>63</v>
+      <c r="A20" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13" t="s">
-        <v>65</v>
+        <v>115</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>66</v>
+      <c r="A25" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="18" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="18" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>76</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+    </row>
+    <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+    </row>
+    <row r="35" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+    </row>
+    <row r="36" s="31" customFormat="true" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="30" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="9" t="s">
-        <v>77</v>
+        <v>137</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
-        <v>85</v>
+      <c r="A38" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="11" t="s">
-        <v>86</v>
+      <c r="A48" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="11" t="s">
-        <v>87</v>
+      <c r="A49" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="11" t="s">
-        <v>88</v>
+      <c r="A50" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="11" t="s">
-        <v>89</v>
+      <c r="A51" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="11" t="s">
-        <v>90</v>
+      <c r="A52" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="11" t="s">
-        <v>91</v>
+      <c r="A53" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="11" t="s">
-        <v>92</v>
+      <c r="A54" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>95</v>
+      <c r="A55" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="34" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>96</v>
+      <c r="A59" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="18" t="s">
-        <v>103</v>
+      <c r="A60" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="63" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="35" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="66" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="36" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="18" t="s">
-        <v>104</v>
+      <c r="A68" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="18" t="s">
-        <v>105</v>
+      <c r="A69" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A65" r:id="rId1" location="directory-structure" display=" "/>
+    <hyperlink ref="B31" r:id="rId1" location="document-methods" display="https://frappeframework.com/docs/user/en/api/document#document-methods"/>
+    <hyperlink ref="B32" r:id="rId2" display="https://frappeframework.com/docs/user/en/api/database"/>
+    <hyperlink ref="B48" r:id="rId3" display="https://frappeframework.com/docs/user/en/desk"/>
+    <hyperlink ref="B52" r:id="rId4" display="https://frappeframework.com/docs/user/en/reports"/>
+    <hyperlink ref="B53" r:id="rId5" display="https://discuss.erpnext.com/t/custom-app-not-showing-on-desk-of-v12/51256/8?u=adam26d"/>
+    <hyperlink ref="B59" r:id="rId6" display="https://frappeframework.com/docs/user/en/api/form"/>
+    <hyperlink ref="B60" r:id="rId7" display="https://frappeframework.com/docs/user/en/api/server-calls"/>
+    <hyperlink ref="B69" r:id="rId8" display="https://frappe.github.io/charts/"/>
+    <hyperlink ref="B70" r:id="rId9" display="https://frappeframework.com/docs/user/en/guides/desk/formatter_for_link_fields"/>
+    <hyperlink ref="B71" r:id="rId10" display="https://github.com/org/app_name"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2437,10 +4732,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2455,28 +4750,58 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>106</v>
+      <c r="A2" s="8" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>109</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>110</v>
+      <c r="A7" s="8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="9" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2495,56 +4820,171 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A30" activeCellId="0" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="103.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="114.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>112</v>
+    <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="37" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" s="29" customFormat="true" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>115</v>
+      <c r="A3" s="0" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>118</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="10" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="39" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="16" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="16" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -2563,40 +5003,386 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A2:A56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="57.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.44"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="104.99"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>120</v>
-      </c>
-    </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>122</v>
+      <c r="A2" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="11" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="43" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="9" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" s="45" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="16" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="16" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="16" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="46" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="47" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="46" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="10" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://frappeframework.com/docs/user/en/guides/basics/hooks"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://frappeframework.com/docs/user/en"/>
-  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A2:A27"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="149.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="2" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="48" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="11" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="50" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="52" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="19" s="55" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="54" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="22" s="57" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="56" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="58" t="s">
+        <v>294</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/erpnext-notes/NEXTERP-NOTES.xlsx
+++ b/erpnext-notes/NEXTERP-NOTES.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="14"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Functional" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="376">
   <si>
     <t xml:space="preserve">Supplier can be an individual or an organization and has multiple Contacts and Addresses</t>
   </si>
@@ -94,6 +94,12 @@
     <t xml:space="preserve">book of accounts == chart of accounts?????</t>
   </si>
   <si>
+    <t xml:space="preserve">Basics of accounting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappebooks.com/docs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bench is a command line utility to install, manage multiple sites and manage the ERPNext application on a Unix-based system</t>
   </si>
   <si>
@@ -1141,32 +1147,8 @@
     <t xml:space="preserve">Adding app to a site</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">bench get-app </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://github.com/org/app_name</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> + 
+    <t xml:space="preserve">bench get-app https://github.com/org/app_name + 
 bench --site site_name install-app app_name</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">To set the self.name property in the method</t>
@@ -1179,6 +1161,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert A Document Via Api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/insert-a-document-via-api</t>
   </si>
   <si>
     <t xml:space="preserve">Bench is the all-in-one tool to manage all things Frappe</t>
@@ -2081,6 +2069,12 @@
     <t xml:space="preserve">To create a module icon for a Page, List or Module, you will have to edit the config/desktop.py file in your app or add a.py file with the module name</t>
   </si>
   <si>
+    <t xml:space="preserve">Overriding Link Query By Custom Script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">override the standard link query by using set_query for Adding Filters or Calling a Different Method to Generate Results </t>
+  </si>
+  <si>
     <t xml:space="preserve">setting date format</t>
   </si>
   <si>
@@ -2147,12 +2141,18 @@
     <t xml:space="preserve">Common utilities</t>
   </si>
   <si>
-    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/dialog#dialog-api</t>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/api/dialog#dialog-api </t>
   </si>
   <si>
     <t xml:space="preserve">Dialogs</t>
   </si>
   <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/dialogs-types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dialogs Types</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.frappeframework.com/docs//user/en/bench/resources/bench-commands-cheatsheet</t>
   </si>
   <si>
@@ -2202,26 +2202,16 @@
     <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/adding-module-icons-on-desktop</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/custom-module</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">-icon</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">adding custom module icon</t>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/custom-module-icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adding custom module icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/overriding-link-query-by-custom-script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overriding Link Query By Custom Script ( 2 add domain 4exm)</t>
   </si>
   <si>
     <t xml:space="preserve">Frappe Controls</t>
@@ -2236,6 +2226,15 @@
     <t xml:space="preserve">What is next server_action and  client_side</t>
   </si>
   <si>
+    <t xml:space="preserve">patch in the patches.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to add x2many in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buttons groups on erpnext</t>
+  </si>
+  <si>
     <t xml:space="preserve">Issue</t>
   </si>
   <si>
@@ -2267,6 +2266,13 @@
   </si>
   <si>
     <t xml:space="preserve">https://frappeframework.com/docs/user/en/guides/app-development/how-to-create-custom-fields-during-app-installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extending Documents: Each model can be extended by adding events in the controller class
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://frappe.io/frappejs/docs/models/document.md</t>
   </si>
 </sst>
 </file>
@@ -2381,13 +2387,13 @@
       <family val="2"/>
     </font>
     <font>
-      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -2541,6 +2547,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFDB7093"/>
+        <bgColor rgb="FFFF69B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF6B8E23"/>
         <bgColor rgb="FF808000"/>
       </patternFill>
@@ -2591,12 +2603,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF69B4"/>
         <bgColor rgb="FFDB7093"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDB7093"/>
-        <bgColor rgb="FFFF69B4"/>
       </patternFill>
     </fill>
     <fill>
@@ -2760,7 +2766,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2785,7 +2791,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2801,31 +2815,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="15" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2833,19 +2843,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="23" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2853,26 +2863,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="19" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="24" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="20" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="21" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2881,11 +2883,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="23" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2985,11 +2995,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="25" fillId="17" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3001,7 +3011,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3126,7 +3136,7 @@
   <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3177,10 +3187,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3190,26 +3200,26 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="68.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="35" t="s">
-        <v>296</v>
+      <c r="A1" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="3" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="36" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>298</v>
+      <c r="A5" s="9" t="s">
+        <v>302</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>2</v>
@@ -3217,7 +3227,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
@@ -3225,7 +3235,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>4</v>
@@ -3233,7 +3243,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>5</v>
@@ -3241,17 +3251,17 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>303</v>
+      <c r="A10" s="10" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>6</v>
@@ -3259,40 +3269,50 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
-        <v>306</v>
+      <c r="A15" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="18" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="21" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="43" t="s">
-        <v>310</v>
+      <c r="A17" s="48" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="44" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>311</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3325,10 +3345,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="13.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>313</v>
+        <v>318</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3347,220 +3367,244 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="89.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="70.76"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>314</v>
+      <c r="A1" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>317</v>
+      <c r="A2" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>319</v>
+        <v>324</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>320</v>
+      <c r="A4" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
-        <v>322</v>
+      <c r="A5" s="7" t="s">
+        <v>328</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9"/>
+      <c r="A7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" s="62" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="10" s="62" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="60" t="s">
-        <v>326</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>244</v>
+      <c r="A8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="9" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="61" t="s">
+        <v>160</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="10" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="61" t="s">
+        <v>332</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
-        <v>160</v>
+      <c r="A11" s="7" t="s">
+        <v>162</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
-        <v>133</v>
+      <c r="A12" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
-        <v>135</v>
+      <c r="A13" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
-        <v>329</v>
+      <c r="A14" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
-        <v>169</v>
+      <c r="A15" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
-        <v>169</v>
+      <c r="A16" s="7" t="s">
+        <v>171</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>171</v>
+      <c r="A17" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>332</v>
+      <c r="A18" s="7" t="s">
+        <v>338</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>334</v>
+      <c r="A19" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>337</v>
+      <c r="A20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>339</v>
+      <c r="A21" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16" t="s">
-        <v>340</v>
+      <c r="A22" s="7" t="s">
+        <v>346</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16" t="s">
-        <v>181</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="16" t="s">
-        <v>344</v>
+      <c r="A23" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>351</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>187</v>
+      <c r="A26" s="7" t="s">
+        <v>352</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>186</v>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3581,12 +3625,15 @@
     <hyperlink ref="A17" r:id="rId14" display="https://frappeframework.com/docs/user/en/api/server-calls"/>
     <hyperlink ref="A18" r:id="rId15" display="https://frappeframework.com/docs/user/en/api/js-utils"/>
     <hyperlink ref="A19" r:id="rId16" location="dialog-api" display="https://frappeframework.com/docs/user/en/api/dialog#dialog-api"/>
-    <hyperlink ref="A20" r:id="rId17" display="https://www.frappeframework.com/docs//user/en/bench/resources/bench-commands-cheatsheet"/>
-    <hyperlink ref="A21" r:id="rId18" display="https://frappeframework.com/docs/user/en/tutorial/task-runner"/>
-    <hyperlink ref="A23" r:id="rId19" display="https://frappeframework.com/docs/user/en/guides/desk/formatter_for_link_fields"/>
-    <hyperlink ref="A24" r:id="rId20" display="https://frappeframework.com/docs/user/en/guides/app-development/adding-module-icons-on-desktop"/>
-    <hyperlink ref="A25" r:id="rId21" display="https://frappeframework.com/docs/user/en/guides/app-development/custom-module"/>
-    <hyperlink ref="A26" r:id="rId22" display="https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations"/>
+    <hyperlink ref="A20" r:id="rId17" display="https://frappeframework.com/docs/user/en/guides/app-development/dialogs-types"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://www.frappeframework.com/docs//user/en/bench/resources/bench-commands-cheatsheet"/>
+    <hyperlink ref="A22" r:id="rId19" display="https://frappeframework.com/docs/user/en/tutorial/task-runner"/>
+    <hyperlink ref="A24" r:id="rId20" display="https://frappeframework.com/docs/user/en/guides/desk/formatter_for_link_fields"/>
+    <hyperlink ref="A25" r:id="rId21" display="https://frappeframework.com/docs/user/en/guides/app-development/adding-module-icons-on-desktop"/>
+    <hyperlink ref="A26" r:id="rId22" display="https://frappeframework.com/docs/user/en/guides/app-development/custom-module-icon"/>
+    <hyperlink ref="A27" r:id="rId23" display="https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations"/>
+    <hyperlink ref="A28" r:id="rId24" display="https://frappeframework.com/docs/user/en/guides/app-development/insert-a-document-via-api"/>
+    <hyperlink ref="A29" r:id="rId25" display="https://frappeframework.com/docs/user/en/guides/app-development/overriding-link-query-by-custom-script"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3603,10 +3650,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3617,22 +3664,37 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>349</v>
+        <v>359</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3664,36 +3726,36 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="63" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="63" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>351</v>
+    <row r="1" s="64" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="64" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>353</v>
+        <v>365</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5" s="66" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B5" s="65" t="s">
-        <v>357</v>
+        <v>367</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5" s="67" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="66" t="s">
+        <v>369</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3716,15 +3778,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="72.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="86.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="79.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
@@ -3732,29 +3794,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>186</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>187</v>
+        <v>188</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>360</v>
+        <v>372</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://frappeframework.com/docs/user/en/guides/app-development/exporting-customizations"/>
     <hyperlink ref="B4" r:id="rId2" display="https://frappeframework.com/docs/user/en/guides/app-development/how-to-create-custom-fields-during-app-installation"/>
+    <hyperlink ref="B5" r:id="rId3" display="https://frappe.io/frappejs/docs/models/document.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
@@ -3771,10 +3842,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3854,7 +3925,20 @@
         <v>18</v>
       </c>
     </row>
+    <row r="19" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A20" r:id="rId1" display="https://frappebooks.com/docs"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3884,12 +3968,12 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
+      <c r="A3" s="8" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -3921,293 +4005,293 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7" t="s">
-        <v>21</v>
+      <c r="A2" s="9" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>22</v>
+      <c r="A3" s="10" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>23</v>
+      <c r="A4" s="10" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>24</v>
+      <c r="A5" s="11" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>26</v>
+      <c r="A9" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>27</v>
+      <c r="A10" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
+      <c r="A11" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="8" t="s">
-        <v>29</v>
+      <c r="A12" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="8" t="s">
-        <v>34</v>
+      <c r="A18" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="s">
-        <v>36</v>
+      <c r="A20" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" s="14" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>39</v>
+      <c r="A25" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="13" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="14" t="s">
         <v>42</v>
       </c>
     </row>
+    <row r="27" s="15" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="10" t="s">
-        <v>43</v>
+      <c r="A30" s="12" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="16" t="s">
-        <v>44</v>
+      <c r="A31" s="7" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
-        <v>45</v>
+      <c r="A32" s="7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>46</v>
+      <c r="A33" s="18" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="16" t="s">
-        <v>47</v>
+      <c r="A34" s="7" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="16" t="s">
-        <v>48</v>
+      <c r="A35" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>50</v>
+      <c r="A37" s="11" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" s="19" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" s="20" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="19" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="8" t="s">
-        <v>53</v>
+      <c r="A41" s="10" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" s="21" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" s="22" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
-        <v>58</v>
+      <c r="A46" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="23" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>59</v>
+      <c r="A48" s="9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>60</v>
+      <c r="A49" s="9" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>61</v>
+      <c r="A50" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>62</v>
+      <c r="A51" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>63</v>
+      <c r="A52" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>64</v>
+      <c r="A53" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>65</v>
+      <c r="A54" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="57" s="23" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="23" t="s">
-        <v>67</v>
+      <c r="A55" s="9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="57" s="24" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="16" t="s">
-        <v>70</v>
+      <c r="A60" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="16" t="s">
-        <v>71</v>
+      <c r="A61" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="16" t="s">
-        <v>72</v>
+      <c r="A62" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" s="25" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="24" t="s">
-        <v>74</v>
+      <c r="A63" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" s="26" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="25" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="16" t="s">
-        <v>75</v>
+      <c r="A66" s="7" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="16" t="s">
-        <v>76</v>
+      <c r="A67" s="7" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="16" t="s">
-        <v>77</v>
+      <c r="A68" s="7" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="16" t="s">
-        <v>78</v>
+      <c r="A69" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4229,9 +4313,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A72" activeCellId="0" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -4245,463 +4329,471 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="3" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="26" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="27" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>82</v>
+      <c r="A4" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B5" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+    <row r="5" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B5" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="9" t="s">
+    </row>
+    <row r="6" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>88</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>91</v>
+      <c r="A8" s="11" t="s">
+        <v>93</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>94</v>
+      <c r="A9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>96</v>
+      <c r="A10" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>98</v>
+      <c r="A11" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" s="27" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>99</v>
+      <c r="A12" s="11"/>
+    </row>
+    <row r="13" s="28" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="9" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="15" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="23" s="29" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="23" s="30" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="29" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>119</v>
+      <c r="A24" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>125</v>
+      <c r="A27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>126</v>
       </c>
+      <c r="B28" s="10" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>128</v>
+      <c r="A29" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>130</v>
+      <c r="A30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>132</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>133</v>
+      <c r="A31" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>135</v>
+      <c r="A32" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="8"/>
-      <c r="B33" s="8"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="8"/>
-      <c r="B35" s="8"/>
-    </row>
-    <row r="36" s="31" customFormat="true" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="B36" s="30"/>
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+    </row>
+    <row r="36" s="32" customFormat="true" ht="17.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" s="31"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>138</v>
+      <c r="A37" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>140</v>
+      <c r="A38" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" s="32" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="32" t="s">
+      <c r="A39" s="11" t="s">
         <v>143</v>
       </c>
+      <c r="B39" s="11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="33" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" s="33" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="33" t="s">
+      <c r="A44" s="11" t="s">
         <v>146</v>
       </c>
+      <c r="B44" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="34" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>148</v>
+      <c r="A47" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>150</v>
+      <c r="A48" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="9" t="s">
-        <v>151</v>
+      <c r="A49" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="B53" s="16" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>164</v>
+      <c r="A55" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="58" s="34" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="34" t="s">
-        <v>167</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="58" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="35" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B59" s="16" t="s">
-        <v>169</v>
+      <c r="A59" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="63" s="35" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="35" t="s">
         <v>172</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="63" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="36" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="66" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="36" t="s">
         <v>175</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="66" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="37" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>178</v>
-      </c>
-      <c r="B69" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>180</v>
-      </c>
-      <c r="B70" s="16" t="s">
-        <v>181</v>
+        <v>182</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="8" t="s">
-        <v>184</v>
+      <c r="A72" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -4715,7 +4807,8 @@
     <hyperlink ref="B60" r:id="rId7" display="https://frappeframework.com/docs/user/en/api/server-calls"/>
     <hyperlink ref="B69" r:id="rId8" display="https://frappe.github.io/charts/"/>
     <hyperlink ref="B70" r:id="rId9" display="https://frappeframework.com/docs/user/en/guides/desk/formatter_for_link_fields"/>
-    <hyperlink ref="B71" r:id="rId10" display="https://github.com/org/app_name"/>
+    <hyperlink ref="B71" r:id="rId10" display="bench get-app https://github.com/org/app_name + &#10;bench --site site_name install-app app_name"/>
+    <hyperlink ref="B75" r:id="rId11" display="https://frappeframework.com/docs/user/en/guides/app-development/insert-a-document-via-api"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -4745,63 +4838,63 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="9" t="s">
-        <v>19</v>
+      <c r="A1" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>188</v>
+      <c r="A2" s="10" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>190</v>
+      <c r="A4" s="8" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>191</v>
+      <c r="A6" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>192</v>
+      <c r="A7" s="10" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>193</v>
+      <c r="A9" s="10" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>198</v>
+      <c r="A15" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4832,159 +4925,159 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37" t="s">
-        <v>117</v>
+    <row r="1" s="39" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="38" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>199</v>
+      <c r="A2" s="10" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
-        <v>201</v>
+      <c r="A4" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>202</v>
+      <c r="A5" s="10" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" s="40" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
-        <v>207</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" s="41" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="40" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>210</v>
+      <c r="A13" s="10" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>211</v>
+      <c r="A14" s="10" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
-        <v>214</v>
+      <c r="A17" s="7" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
-        <v>215</v>
+      <c r="A18" s="7" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
-        <v>216</v>
+      <c r="A19" s="7" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="16" t="s">
-        <v>217</v>
+      <c r="A20" s="7" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>218</v>
+      <c r="A21" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" s="42" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="s">
-        <v>143</v>
+      <c r="A23" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" s="43" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="16" t="s">
-        <v>225</v>
+      <c r="A29" s="7" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="16" t="s">
-        <v>226</v>
+      <c r="A30" s="7" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5016,234 +5109,234 @@
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
-        <v>228</v>
+      <c r="A2" s="10" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
-        <v>229</v>
+      <c r="A3" s="10" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>230</v>
+      <c r="A4" s="10" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>231</v>
+      <c r="A5" s="10" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>232</v>
+      <c r="A6" s="10" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>233</v>
+      <c r="A7" s="10" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="11" s="44" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="43" t="s">
-        <v>236</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" s="45" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
-        <v>237</v>
+      <c r="A13" s="10" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>238</v>
+      <c r="A14" s="10" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>239</v>
+      <c r="A15" s="10" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>241</v>
+      <c r="A17" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="21" s="45" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45" t="s">
-        <v>244</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="21" s="46" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="46" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>245</v>
+      <c r="A23" s="10" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16" t="s">
-        <v>246</v>
+      <c r="A24" s="7" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="16" t="s">
-        <v>248</v>
+      <c r="A26" s="7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="16" t="s">
-        <v>250</v>
+      <c r="A28" s="7" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="46" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="47" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="47" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="39" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="46" t="s">
-        <v>260</v>
+      <c r="A37" s="48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="39" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="47" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="16" t="s">
-        <v>261</v>
+      <c r="A40" s="7" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="16" t="s">
-        <v>262</v>
+      <c r="A41" s="7" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="46" s="36" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="46" s="37" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="16" t="s">
-        <v>267</v>
+      <c r="A49" s="7" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="16" t="s">
-        <v>268</v>
+      <c r="A50" s="7" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="47" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="53" s="46" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="46" t="s">
-        <v>270</v>
+      <c r="A51" s="48" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="53" s="47" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="47" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="8" t="s">
-        <v>271</v>
+      <c r="A54" s="10" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="16" t="s">
-        <v>272</v>
+      <c r="A55" s="7" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="10" t="s">
-        <v>273</v>
+      <c r="A56" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5265,7 +5358,7 @@
   <dimension ref="A2:A27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A27" activeCellId="0" sqref="A27"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5274,112 +5367,112 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="11.52"/>
   </cols>
   <sheetData>
-    <row r="2" s="49" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="48" t="s">
-        <v>274</v>
+    <row r="2" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="49" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>276</v>
+      <c r="A4" s="7" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>277</v>
+      <c r="A5" s="10" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>279</v>
+      <c r="A7" s="7" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="50" t="s">
-        <v>282</v>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" s="52" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="51" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="16" s="53" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52" t="s">
-        <v>286</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" s="54" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="53" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="19" s="55" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="54" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" s="56" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="55" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="22" s="57" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="56" t="s">
-        <v>290</v>
+      <c r="A20" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" s="58" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="57" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="8" t="s">
-        <v>291</v>
+      <c r="A23" s="10" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="8" t="s">
-        <v>292</v>
+      <c r="A24" s="10" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="8" t="s">
-        <v>293</v>
+      <c r="A25" s="10" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="8"/>
-    </row>
-    <row r="27" s="59" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="58" t="s">
-        <v>294</v>
+      <c r="A26" s="10"/>
+    </row>
+    <row r="27" s="60" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="59" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
